--- a/loan_history.xlsx
+++ b/loan_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINE\Documents\Loan_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28478C9C-BB39-4CAE-AA02-63D6FB9A23E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D79CB8-A7C6-40B3-8647-0C74FD1D2961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CCE0077-C0EC-4094-8539-D6B6B485C84F}"/>
   </bookViews>
@@ -22,6 +22,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Monthly Payment</t>
+  </si>
+  <si>
+    <t>Total Payment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +397,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEA1F92-8FDD-419F-AED6-F30EF327EC97}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>